--- a/Resources/Tablas.xlsx
+++ b/Resources/Tablas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glopez/Documents/Python/Correlaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Desarrollo\Python\Correlaciones\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF29470-8AFC-A844-867E-5B1CA4E0941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A3FE1-1180-42A9-8324-AAE8DD355790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2140" windowWidth="22280" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BrundbauTashenbuch" sheetId="1" r:id="rId1"/>
+    <sheet name="BrundbauTaschenbuch" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">BrundbauTashenbuch!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">BrundbauTaschenbuch!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -429,12 +429,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -444,95 +438,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,58 +842,58 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="40.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -915,10 +915,10 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="36" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -930,12 +930,12 @@
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -957,8 +957,8 @@
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
@@ -968,1412 +968,1453 @@
       <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4">
         <v>16</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="11">
         <v>9.5</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="4">
         <v>5</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="11">
         <v>40</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="4">
         <v>34</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="22">
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4">
         <v>32</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="12">
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="26">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="13">
         <v>19</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="14">
         <v>10.5</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="14">
         <v>90</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="13">
         <v>42</v>
       </c>
-      <c r="L5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="26">
+      <c r="L5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="13">
         <v>35</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="13">
         <v>21</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="14">
         <v>11.5</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="13">
         <v>7</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="14">
         <v>40</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="13">
         <v>35</v>
       </c>
-      <c r="L6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="26">
+      <c r="L6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="13">
         <v>32</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="13">
         <v>23</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="14">
         <v>13.5</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="13">
         <v>3</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="14">
         <v>110</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="13">
         <v>45</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="13">
         <v>10</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="13">
         <v>35</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="15">
         <v>1.1000000000000001E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26">
-        <v>20</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="D8" s="13">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13">
         <v>16</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="13">
         <v>4</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="13">
         <v>21</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="14">
         <v>11.5</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="13">
         <v>9</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="14">
         <v>40</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="13">
         <v>35</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="13">
         <v>32</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="15">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="5">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="26">
+      <c r="C9" s="28"/>
+      <c r="D9" s="13">
         <v>45</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="13">
         <v>25</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="13">
         <v>25</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="13">
         <v>24</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="14">
         <v>14.5</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="13">
         <v>3</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="14">
         <v>115</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="13">
         <v>43</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="13">
         <v>30</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="13">
         <v>35</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="15">
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="5">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="26">
-        <v>20</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="13">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
         <v>16</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="13">
         <v>4</v>
       </c>
-      <c r="G10" s="26">
-        <v>20</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="G10" s="13">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14">
         <v>10.5</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="13">
         <v>13</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="14">
         <v>15</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="13">
         <v>28</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="13">
         <v>5</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="13">
         <v>22</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="15">
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="5">
         <v>40</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="26">
+      <c r="C11" s="28"/>
+      <c r="D11" s="13">
         <v>50</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="13">
         <v>25</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="13">
         <v>30</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="14">
         <v>22.5</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="13">
         <v>13</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="13">
         <v>5</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="14">
         <v>40</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="13">
         <v>35</v>
       </c>
-      <c r="L11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="26">
+      <c r="L11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="13">
         <v>30</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="15">
         <v>1.1000000000000001E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="27">
         <v>100</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="13">
         <v>16</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="14">
         <v>9.5</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="13">
         <v>22</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="14">
         <v>15</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="13">
         <v>32</v>
       </c>
-      <c r="L12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="26">
+      <c r="L12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="13">
         <v>30</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="15">
         <v>2.1000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="26">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="13">
         <v>19</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="13">
         <v>11</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="13">
         <v>8</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="14">
         <v>30</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="13">
         <v>40</v>
       </c>
-      <c r="L13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="26">
+      <c r="L13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="13">
         <v>32</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="15">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="27">
         <v>100</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="26">
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="13">
         <v>16</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="14">
         <v>9.5</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="13">
         <v>16</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="14">
         <v>24</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="13">
         <v>34</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="26">
+      <c r="L14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="13">
         <v>30</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="15">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="26">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="13">
         <v>19</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="13">
         <v>11</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="13">
         <v>6</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="14">
         <v>70</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="13">
         <v>42</v>
       </c>
-      <c r="L15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="26">
+      <c r="L15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="13">
         <v>34</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="15">
         <v>2.1000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="27">
         <v>60</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="13">
         <v>18</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="13">
         <v>10</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="13">
         <v>11</v>
       </c>
-      <c r="J16" s="27">
-        <v>20</v>
-      </c>
-      <c r="K16" s="26">
+      <c r="J16" s="14">
+        <v>20</v>
+      </c>
+      <c r="K16" s="13">
         <v>33</v>
       </c>
-      <c r="L16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="26">
+      <c r="L16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="13">
         <v>32</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="15">
         <v>5.1000000000000003E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="13">
         <v>21</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="13">
         <v>12</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="13">
         <v>5</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="14">
         <v>60</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="13">
         <v>41</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="26">
+      <c r="L17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="13">
         <v>34</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="15">
         <v>2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>8</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="26">
-        <v>20</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="13">
+        <v>20</v>
+      </c>
+      <c r="E18" s="13">
         <v>16</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="13">
         <v>4</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="13">
         <v>19</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="14">
         <v>10.5</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="13">
         <v>15</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="14">
         <v>15</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="13">
         <v>32</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="13">
         <v>10</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="13">
         <v>30</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="15">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="5">
         <v>15</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="26">
+      <c r="C19" s="28"/>
+      <c r="D19" s="13">
         <v>45</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="13">
         <v>25</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="13">
         <v>25</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="14">
         <v>22.5</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="13">
         <v>13</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="13">
         <v>4</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="14">
         <v>50</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="13">
         <v>40</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="13">
         <v>0</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="13">
         <v>32</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="15">
         <v>1.1000000000000001E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="5">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="26">
-        <v>20</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="13">
+        <v>20</v>
+      </c>
+      <c r="E20" s="13">
         <v>16</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="13">
         <v>4</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="13">
         <v>18</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="13">
         <v>9</v>
       </c>
-      <c r="I20" s="26">
-        <v>20</v>
-      </c>
-      <c r="J20" s="27">
+      <c r="I20" s="13">
+        <v>20</v>
+      </c>
+      <c r="J20" s="14">
         <v>5</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="13">
         <v>25</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="13">
         <v>50</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="13">
         <v>22</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="15">
         <v>1.1000000000000001E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
       <c r="B21" s="6">
         <v>40</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="33">
+      <c r="C21" s="28"/>
+      <c r="D21" s="3">
         <v>50</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="3">
         <v>30</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="3">
         <v>30</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="17">
         <v>21.5</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="3">
         <v>11</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="3">
         <v>8</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="17">
         <v>25</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="3">
         <v>32</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="13">
         <v>10</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="3">
         <v>30</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="18">
         <v>1.0999999999999999E-10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="13">
         <v>25</v>
       </c>
-      <c r="E22" s="26">
-        <v>20</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="E22" s="13">
+        <v>20</v>
+      </c>
+      <c r="F22" s="13">
         <v>4</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="14">
         <v>17.5</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="14">
         <v>9.5</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="13">
         <v>28</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="14">
         <v>4</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="13">
         <v>28</v>
       </c>
-      <c r="L22" s="33">
-        <v>20</v>
-      </c>
-      <c r="M22" s="26">
+      <c r="L22" s="3">
+        <v>20</v>
+      </c>
+      <c r="M22" s="13">
         <v>25</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22" s="18">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="26">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="13">
         <v>35</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="13">
         <v>28</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="13">
         <v>11</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="13">
         <v>21</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="13">
         <v>11</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="13">
         <v>15</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="14">
         <v>11</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="13">
         <v>35</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="13">
         <v>5</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="19">
         <v>30</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="15">
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="13">
         <v>35</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="13">
         <v>22</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="13">
         <v>7</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="13">
         <v>17</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="14">
         <v>8.5</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="13">
         <v>35</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="14">
         <v>3</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="13">
         <v>25</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="13">
         <v>30</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="13">
         <v>22</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="12">
         <v>2.0999999999999998E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="26">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="13">
         <v>50</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="13">
         <v>25</v>
       </c>
-      <c r="F25" s="26">
-        <v>20</v>
-      </c>
-      <c r="G25" s="26">
-        <v>20</v>
-      </c>
-      <c r="H25" s="27">
+      <c r="F25" s="13">
+        <v>20</v>
+      </c>
+      <c r="G25" s="13">
+        <v>20</v>
+      </c>
+      <c r="H25" s="14">
         <v>10.5</v>
       </c>
-      <c r="I25" s="26">
-        <v>20</v>
-      </c>
-      <c r="J25" s="27">
+      <c r="I25" s="13">
+        <v>20</v>
+      </c>
+      <c r="J25" s="14">
         <v>7</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="13">
         <v>33</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="13">
         <v>10</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="13">
         <v>29</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="15">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="27">
         <v>100</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="13">
         <v>25</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="13">
         <v>15</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="13">
         <v>7</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="13">
         <v>19</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="14">
         <v>9.5</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="13">
         <v>28</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="14">
         <v>2</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="13">
         <v>24</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="13">
         <v>60</v>
       </c>
-      <c r="M26" s="26">
-        <v>20</v>
-      </c>
-      <c r="N26" s="28">
+      <c r="M26" s="13">
+        <v>20</v>
+      </c>
+      <c r="N26" s="15">
         <v>1.1000000000000001E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="26">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="13">
         <v>35</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="13">
         <v>22</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="13">
         <v>16</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="13">
         <v>22</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="13">
         <v>12</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="13">
         <v>14</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="14">
         <v>5</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="13">
         <v>32</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="13">
         <v>15</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="13">
         <v>28</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="15">
         <v>2.1000000000000002E-9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="27">
         <v>100</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="13">
         <v>40</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="13">
         <v>18</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="13">
         <v>16</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="13">
         <v>18</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="14">
         <v>8.5</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="13">
         <v>38</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="14">
         <v>1</v>
       </c>
-      <c r="K28" s="26">
-        <v>20</v>
-      </c>
-      <c r="L28" s="26">
+      <c r="K28" s="13">
+        <v>20</v>
+      </c>
+      <c r="L28" s="13">
         <v>80</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="13">
         <v>10</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="15">
         <v>5.1E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="26">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="13">
         <v>50</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="13">
         <v>25</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="13">
         <v>28</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="13">
         <v>21</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="13">
         <v>11</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="13">
         <v>18</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="14">
         <v>3</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="13">
         <v>30</v>
       </c>
-      <c r="L29" s="26">
-        <v>20</v>
-      </c>
-      <c r="M29" s="26">
-        <v>20</v>
-      </c>
-      <c r="N29" s="28">
+      <c r="L29" s="13">
+        <v>20</v>
+      </c>
+      <c r="M29" s="13">
+        <v>20</v>
+      </c>
+      <c r="N29" s="15">
         <v>1.0999999999999999E-10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="27">
         <v>100</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="27">
         <v>100</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="13">
         <v>60</v>
       </c>
-      <c r="E30" s="26">
-        <v>20</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="E30" s="13">
+        <v>20</v>
+      </c>
+      <c r="F30" s="13">
         <v>33</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="14">
         <v>16.5</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="13">
         <v>7</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="13">
         <v>55</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="14">
         <v>0.5</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="13">
         <v>17</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="13">
         <v>100</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="13">
         <v>6</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N30" s="15">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="26">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="13">
         <v>85</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="13">
         <v>35</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="13">
         <v>55</v>
       </c>
-      <c r="G31" s="26">
-        <v>20</v>
-      </c>
-      <c r="H31" s="26">
+      <c r="G31" s="13">
+        <v>20</v>
+      </c>
+      <c r="H31" s="13">
         <v>10</v>
       </c>
-      <c r="I31" s="26">
-        <v>20</v>
-      </c>
-      <c r="J31" s="27">
+      <c r="I31" s="13">
+        <v>20</v>
+      </c>
+      <c r="J31" s="14">
         <v>2</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="13">
         <v>27</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="13">
         <v>30</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="13">
         <v>15</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="15">
         <v>1.1000000000000001E-11</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="27">
         <v>100</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="13">
         <v>45</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="13">
         <v>30</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="13">
         <v>10</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="14">
         <v>15.5</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="14">
         <v>5.5</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="13">
         <v>60</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="14">
         <v>0.5</v>
       </c>
-      <c r="K32" s="26">
-        <v>20</v>
-      </c>
-      <c r="L32" s="26">
+      <c r="K32" s="13">
+        <v>20</v>
+      </c>
+      <c r="L32" s="13">
         <v>70</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="13">
         <v>15</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="15">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="26">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="13">
         <v>70</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="13">
         <v>14</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="13">
         <v>30</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="13">
         <v>19</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="13">
         <v>9</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="13">
         <v>30</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="14">
         <v>2</v>
       </c>
-      <c r="K33" s="26">
-        <v>26</v>
-      </c>
-      <c r="L33" s="26">
-        <v>20</v>
-      </c>
-      <c r="M33" s="26">
+      <c r="K33" s="13">
+        <v>26</v>
+      </c>
+      <c r="L33" s="13">
+        <v>20</v>
+      </c>
+      <c r="M33" s="13">
         <v>22</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="15">
         <v>1.1000000000000001E-11</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="27">
+      <c r="B34" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="14">
         <v>10.4</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="14">
         <v>0.4</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="13">
         <v>800</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="14">
         <v>0.3</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="13">
         <v>25</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="13">
         <v>15</v>
       </c>
-      <c r="M34" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="28">
+      <c r="M34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="15">
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="26">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="13">
         <v>13</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="13">
         <v>3</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="13">
         <v>100</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J35" s="14">
         <v>0.8</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="13">
         <v>30</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="13">
         <v>5</v>
       </c>
-      <c r="M35" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="28">
+      <c r="M35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="15">
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="26">
+      <c r="B36" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="13">
         <v>100</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="13">
         <v>30</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="13">
         <v>50</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="14">
         <v>12.5</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="14">
         <v>2.5</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="13">
         <v>200</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="14">
         <v>0.4</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="13">
         <v>22</v>
       </c>
-      <c r="L36" s="26">
-        <v>20</v>
-      </c>
-      <c r="M36" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="28">
+      <c r="L36" s="13">
+        <v>20</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="15">
         <v>1.1000000000000001E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="26">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="13">
         <v>250</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="13">
         <v>80</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="13">
         <v>170</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="13">
         <v>16</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="13">
         <v>6</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="13">
         <v>50</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="14">
         <v>1.5</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="13">
         <v>28</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="13">
         <v>5</v>
       </c>
-      <c r="M37" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="28">
+      <c r="M37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="15">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -2388,47 +2429,6 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
